--- a/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_nro.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_nro.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76.3038366317749</v>
+        <v>74.25758337974548</v>
       </c>
       <c r="C2">
-        <v>0.3093428752750292</v>
+        <v>0.5224798097703607</v>
       </c>
       <c r="D2">
-        <v>0.1292547225952148</v>
+        <v>0.1254156112670898</v>
       </c>
       <c r="E2">
-        <v>0.003478671707560923</v>
+        <v>0.006970909705912002</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -528,19 +528,19 @@
         <v>0.1800579947756663</v>
       </c>
       <c r="K2">
-        <v>0.2081558772015706</v>
+        <v>0.2081558772015704</v>
       </c>
       <c r="L2">
         <v>0.1800570488626173</v>
       </c>
       <c r="M2">
-        <v>0.1350604722499714</v>
+        <v>0.1350604722499716</v>
       </c>
       <c r="N2">
         <v>0.1767699808778817</v>
       </c>
       <c r="O2">
-        <v>0.02349648880013261</v>
+        <v>0.02349648880013248</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>149.7709509849548</v>
+        <v>145.2923373222351</v>
       </c>
       <c r="C3">
-        <v>0.7968760517974348</v>
+        <v>0.7962735270897806</v>
       </c>
       <c r="D3">
-        <v>0.1716654300689697</v>
+        <v>0.1604465007781982</v>
       </c>
       <c r="E3">
-        <v>0.002646762408021472</v>
+        <v>0.001943906086801864</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>0.1817796650656422</v>
+        <v>0.1817796650656421</v>
       </c>
       <c r="J3">
         <v>0.1804818414932632</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>296.5116721630096</v>
+        <v>288.2546608448029</v>
       </c>
       <c r="C4">
-        <v>1.536549796398347</v>
+        <v>0.9011651738210665</v>
       </c>
       <c r="D4">
-        <v>0.2669961929321289</v>
+        <v>0.2372743606567383</v>
       </c>
       <c r="E4">
-        <v>0.01439215830867218</v>
+        <v>0.005240128326931513</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>0.1802289248682208</v>
+        <v>0.1802289248682207</v>
       </c>
       <c r="J4">
         <v>0.1771134173781675</v>
@@ -637,10 +637,10 @@
         <v>0.1365567568186785</v>
       </c>
       <c r="N4">
-        <v>0.1760815851128965</v>
+        <v>0.1760815851128964</v>
       </c>
       <c r="O4">
-        <v>0.02192622524145738</v>
+        <v>0.02192622524145737</v>
       </c>
       <c r="P4">
         <v>9</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78.69781966209412</v>
+        <v>75.91708703041077</v>
       </c>
       <c r="C5">
-        <v>0.1976332608297519</v>
+        <v>0.4969558035330031</v>
       </c>
       <c r="D5">
-        <v>0.1304354190826416</v>
+        <v>0.1254543781280518</v>
       </c>
       <c r="E5">
-        <v>0.002304647754756086</v>
+        <v>0.008170815573643618</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>0.1846178503972764</v>
+        <v>0.1846178503972765</v>
       </c>
       <c r="J5">
         <v>0.1827423582996213</v>
@@ -681,7 +681,7 @@
         <v>0.2098005944203692</v>
       </c>
       <c r="L5">
-        <v>0.1842659218338827</v>
+        <v>0.1842659218338828</v>
       </c>
       <c r="M5">
         <v>0.1371692989157739</v>
@@ -690,10 +690,10 @@
         <v>0.1797192047733847</v>
       </c>
       <c r="O5">
-        <v>0.02353377706108879</v>
+        <v>0.0235337770610888</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>154.4117644309998</v>
+        <v>148.2501164913178</v>
       </c>
       <c r="C6">
-        <v>0.8544152229868344</v>
+        <v>0.8305765244725434</v>
       </c>
       <c r="D6">
-        <v>0.1671092987060547</v>
+        <v>0.1598512172698975</v>
       </c>
       <c r="E6">
-        <v>0.001850315227097892</v>
+        <v>0.005164972020037571</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -722,28 +722,28 @@
         <v>19</v>
       </c>
       <c r="I6">
-        <v>0.1864876039466334</v>
+        <v>0.1864876039466336</v>
       </c>
       <c r="J6">
         <v>0.1824387565737219</v>
       </c>
       <c r="K6">
-        <v>0.2093403684092088</v>
+        <v>0.2093403684092087</v>
       </c>
       <c r="L6">
         <v>0.1855190227225255</v>
       </c>
       <c r="M6">
-        <v>0.1401145819529159</v>
+        <v>0.140114581952916</v>
       </c>
       <c r="N6">
         <v>0.1807800667210011</v>
       </c>
       <c r="O6">
-        <v>0.02248180340247947</v>
+        <v>0.02248180340247941</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>306.6212502479553</v>
+        <v>297.0088268756866</v>
       </c>
       <c r="C7">
-        <v>1.106093048921485</v>
+        <v>2.107248503444364</v>
       </c>
       <c r="D7">
-        <v>0.2566303253173828</v>
+        <v>0.2396011352539062</v>
       </c>
       <c r="E7">
-        <v>0.009975515496096259</v>
+        <v>0.003129764014108593</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -772,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>0.1850115543377437</v>
+        <v>0.1850115543377439</v>
       </c>
       <c r="J7">
-        <v>0.1802755948851098</v>
+        <v>0.1802755948851099</v>
       </c>
       <c r="K7">
         <v>0.2081005558546442</v>
@@ -787,7 +787,7 @@
         <v>0.1410988243214032</v>
       </c>
       <c r="N7">
-        <v>0.1802935431884945</v>
+        <v>0.1802935431884946</v>
       </c>
       <c r="O7">
         <v>0.02180110302473925</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78.77802262306213</v>
+        <v>77.47758054733276</v>
       </c>
       <c r="C8">
-        <v>0.2546522632991856</v>
+        <v>0.2427227813929725</v>
       </c>
       <c r="D8">
-        <v>0.1294984340667725</v>
+        <v>0.1244237899780273</v>
       </c>
       <c r="E8">
-        <v>0.001969661041813458</v>
+        <v>0.003410670093205581</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -822,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>0.1846178503972764</v>
+        <v>0.1846178503972765</v>
       </c>
       <c r="J8">
         <v>0.1827423582996213</v>
       </c>
       <c r="K8">
-        <v>0.2098005944203692</v>
+        <v>0.2098005944203694</v>
       </c>
       <c r="L8">
         <v>0.1842659218338828</v>
@@ -837,10 +837,10 @@
         <v>0.1371692989157739</v>
       </c>
       <c r="N8">
-        <v>0.1797192047733847</v>
+        <v>0.1797192047733848</v>
       </c>
       <c r="O8">
-        <v>0.02353377706108879</v>
+        <v>0.02353377706108883</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>154.3356397628784</v>
+        <v>147.6521660327911</v>
       </c>
       <c r="C9">
-        <v>0.8619197480104195</v>
+        <v>3.263459877939863</v>
       </c>
       <c r="D9">
-        <v>0.175078821182251</v>
+        <v>0.1632722854614258</v>
       </c>
       <c r="E9">
-        <v>0.005264382455137722</v>
+        <v>0.00756571304984869</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="I9">
-        <v>0.1864876039466334</v>
+        <v>0.1864876039466336</v>
       </c>
       <c r="J9">
         <v>0.1824387565737219</v>
@@ -884,16 +884,16 @@
         <v>0.1855190227225255</v>
       </c>
       <c r="M9">
-        <v>0.1401145819529158</v>
+        <v>0.140114581952916</v>
       </c>
       <c r="N9">
-        <v>0.1807800667210011</v>
+        <v>0.1807800667210012</v>
       </c>
       <c r="O9">
-        <v>0.02248180340247951</v>
+        <v>0.02248180340247944</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>307.1378344535827</v>
+        <v>284.4731118202209</v>
       </c>
       <c r="C10">
-        <v>1.452395431881703</v>
+        <v>2.194086508229073</v>
       </c>
       <c r="D10">
-        <v>0.255272912979126</v>
+        <v>0.2292266845703125</v>
       </c>
       <c r="E10">
-        <v>0.003150377238468826</v>
+        <v>0.004122922893786852</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>0.02180110302473925</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
